--- a/QuantLibXL/Data2/Book4.xlsx
+++ b/QuantLibXL/Data2/Book4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="758" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="758" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HKD_010_BasisSwapQuotes" sheetId="8" r:id="rId1"/>
@@ -14,42 +14,26 @@
     <sheet name="HKD_020_FuturesConvAdjQuotes" sheetId="35" r:id="rId5"/>
     <sheet name="General Settings" sheetId="66" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$30</definedName>
-    <definedName name="BondBasisDayCounter">[1]HKD_YCRH_Swaps!$D$16</definedName>
     <definedName name="Calendar" localSheetId="5">'General Settings'!$D$25</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DayCounter">'General Settings'!$D$26</definedName>
-    <definedName name="DepoInclusionCriteria">[1]Selected!$B$5</definedName>
-    <definedName name="Discounting">[1]HKD_YCRH_Swaps!$D$20</definedName>
-    <definedName name="Discounting2">[1]HKD_YCRH_Swaps!$D$21</definedName>
     <definedName name="FamilyName">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$13</definedName>
-    <definedName name="FrontFuturesRollingDays">[1]Selected!$B$4</definedName>
     <definedName name="IborIndex" localSheetId="4">HKD_020_FuturesConvAdjQuotes!$F$24</definedName>
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$32</definedName>
     <definedName name="MeanReversion" localSheetId="4">HKD_020_FuturesConvAdjQuotes!$F$23</definedName>
-    <definedName name="MinDistance">[1]RateHelpers!$J$2:$J$125</definedName>
-    <definedName name="MoneyMarketDayCounter">[1]HKD_YCRH_Swaps!$D$17</definedName>
     <definedName name="Months" localSheetId="3">HKD_015_SyntheticQuotes!$B$26</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$24</definedName>
-    <definedName name="nIMMFutures">[1]Selected!$B$2</definedName>
-    <definedName name="nSerialFutures">[1]Selected!$B$3</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
     <definedName name="PriceTickValue">HKD_010_BasisSwapQuotes!$D$17</definedName>
     <definedName name="QuoteSuffix">HKD_010_BasisSwapQuotes!$D$15</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
-    <definedName name="RateHelpers">[1]RateHelpers!$E$2:$E$125</definedName>
-    <definedName name="RateHelpersIncluded">[1]RateHelpers!$H$2:$H$125</definedName>
-    <definedName name="RateHelpersPriority">[1]RateHelpers!$I$2:$I$125</definedName>
-    <definedName name="RateHelpersSelected">[1]Selected!$A$7</definedName>
     <definedName name="RateTickValue">HKD_010_BasisSwapQuotes!$D$16</definedName>
     <definedName name="SerializationPath">HKD_010_BasisSwapQuotes!$D$8</definedName>
     <definedName name="Serialize">HKD_010_BasisSwapQuotes!$D$7</definedName>
@@ -65,7 +49,6 @@
     <definedName name="Trigger" localSheetId="5">'General Settings'!$D$11</definedName>
     <definedName name="Trigger">HKD_010_BasisSwapQuotes!$D$4</definedName>
     <definedName name="Volatility" localSheetId="4">HKD_020_FuturesConvAdjQuotes!$F$22</definedName>
-    <definedName name="YieldCurve">'General Settings'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2168,8 +2151,8 @@
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="171" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="173" formatCode="ddd\,\ d\-mmm\-yyyy"/>
-    <numFmt numFmtId="176" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="172" formatCode="ddd\,\ d\-mmm\-yyyy"/>
+    <numFmt numFmtId="173" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2497,7 +2480,7 @@
     <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2507,7 +2490,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2519,7 +2502,7 @@
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2569,1815 +2552,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HKD_YCRH_Deposits"/>
-      <sheetName val="HKD_YCRH_FRAs"/>
-      <sheetName val="HKD_YCRH_Futures"/>
-      <sheetName val="HKD_YCRH_Swaps"/>
-      <sheetName val="RateHelpers"/>
-      <sheetName val="Selected"/>
-      <sheetName val="General Settings"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="16">
-          <cell r="D16" t="str">
-            <v>Actual/365 (Fixed)</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17" t="str">
-            <v>Actual/365 (Fixed)</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20" t="str">
-            <v>HkdYC</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21" t="str">
-            <v>HkdYCSTD</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="E2" t="str">
-            <v>HKD_YCRH_OND</v>
-          </cell>
-          <cell r="H2" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>70</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>HKD_YCRH_TND</v>
-          </cell>
-          <cell r="H3" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I3">
-            <v>70</v>
-          </cell>
-          <cell r="J3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4" t="str">
-            <v>HKD_YCRH_SND</v>
-          </cell>
-          <cell r="H4" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I4">
-            <v>70</v>
-          </cell>
-          <cell r="J4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>HKD_YCRH_SWD</v>
-          </cell>
-          <cell r="H5" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I5">
-            <v>70</v>
-          </cell>
-          <cell r="J5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6" t="str">
-            <v>HKD_YCRH_2WD</v>
-          </cell>
-          <cell r="H6" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I6">
-            <v>70</v>
-          </cell>
-          <cell r="J6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>HKD_YCRH_3WD</v>
-          </cell>
-          <cell r="H7" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I7">
-            <v>70</v>
-          </cell>
-          <cell r="J7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>HKD_YCRH_1MD</v>
-          </cell>
-          <cell r="H8" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I8">
-            <v>70</v>
-          </cell>
-          <cell r="J8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9" t="str">
-            <v>HKD_YCRH_2MD</v>
-          </cell>
-          <cell r="H9" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I9">
-            <v>70</v>
-          </cell>
-          <cell r="J9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>HKD_YCRH_3MD</v>
-          </cell>
-          <cell r="H10" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I10">
-            <v>70</v>
-          </cell>
-          <cell r="J10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11" t="str">
-            <v>HKD_YCRH_4MD</v>
-          </cell>
-          <cell r="H11" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I11">
-            <v>70</v>
-          </cell>
-          <cell r="J11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12" t="str">
-            <v>HKD_YCRH_5MD</v>
-          </cell>
-          <cell r="H12" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I12">
-            <v>70</v>
-          </cell>
-          <cell r="J12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13" t="str">
-            <v>HKD_YCRH_6MD</v>
-          </cell>
-          <cell r="H13" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I13">
-            <v>70</v>
-          </cell>
-          <cell r="J13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14" t="str">
-            <v>HKD_YCRH_9MD</v>
-          </cell>
-          <cell r="H14" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I14">
-            <v>70</v>
-          </cell>
-          <cell r="J14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15" t="str">
-            <v>HKD_YCRH_1YD</v>
-          </cell>
-          <cell r="H15" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I15">
-            <v>70</v>
-          </cell>
-          <cell r="J15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16" t="str">
-            <v>HKD_YCRH_ECBOISDEC13</v>
-          </cell>
-          <cell r="H16" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I16">
-            <v>70</v>
-          </cell>
-          <cell r="J16">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H17" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I17">
-            <v>70</v>
-          </cell>
-          <cell r="J17">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H18" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I18">
-            <v>70</v>
-          </cell>
-          <cell r="J18">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H19" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I19">
-            <v>70</v>
-          </cell>
-          <cell r="J19">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H20" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I20">
-            <v>70</v>
-          </cell>
-          <cell r="J20">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H21" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I21">
-            <v>70</v>
-          </cell>
-          <cell r="J21">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H22" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I22">
-            <v>70</v>
-          </cell>
-          <cell r="J22">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H23" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I23">
-            <v>70</v>
-          </cell>
-          <cell r="J23">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H24" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I24">
-            <v>70</v>
-          </cell>
-          <cell r="J24">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H25" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I25">
-            <v>70</v>
-          </cell>
-          <cell r="J25">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H26" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I26">
-            <v>70</v>
-          </cell>
-          <cell r="J26">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="H27" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I27">
-            <v>70</v>
-          </cell>
-          <cell r="J27">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28" t="str">
-            <v>HKD_YCRH_1S12</v>
-          </cell>
-          <cell r="H28" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I28">
-            <v>40</v>
-          </cell>
-          <cell r="J28">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29" t="str">
-            <v>HKD_YCRH_2S12</v>
-          </cell>
-          <cell r="H29" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I29">
-            <v>40</v>
-          </cell>
-          <cell r="J29">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30" t="str">
-            <v>HKD_YCRH_3S12</v>
-          </cell>
-          <cell r="H30" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I30">
-            <v>40</v>
-          </cell>
-          <cell r="J30">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31" t="str">
-            <v>HKD_YCRH_4S12</v>
-          </cell>
-          <cell r="H31" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I31">
-            <v>40</v>
-          </cell>
-          <cell r="J31">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32" t="str">
-            <v>HKD_YCRH_1S24</v>
-          </cell>
-          <cell r="H32" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I32">
-            <v>40</v>
-          </cell>
-          <cell r="J32">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33" t="str">
-            <v>HKD_YCRH_2S24</v>
-          </cell>
-          <cell r="H33" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I33">
-            <v>40</v>
-          </cell>
-          <cell r="J33">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34" t="str">
-            <v>HKD_YCRH_1S36</v>
-          </cell>
-          <cell r="H34" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I34">
-            <v>40</v>
-          </cell>
-          <cell r="J34">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35" t="str">
-            <v>HKD_YCRH_OISSW</v>
-          </cell>
-          <cell r="H35" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I35">
-            <v>50</v>
-          </cell>
-          <cell r="J35">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36" t="str">
-            <v>HKD_YCRH_OIS2W</v>
-          </cell>
-          <cell r="H36" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I36">
-            <v>50</v>
-          </cell>
-          <cell r="J36">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37" t="str">
-            <v>HKD_YCRH_OIS3W</v>
-          </cell>
-          <cell r="H37" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I37">
-            <v>50</v>
-          </cell>
-          <cell r="J37">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38" t="str">
-            <v>HKD_YCRH_OIS1M</v>
-          </cell>
-          <cell r="H38" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="I38">
-            <v>50</v>
-          </cell>
-          <cell r="J38">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39" t="str">
-            <v>HKD_YCRH_OIS2M</v>
-          </cell>
-          <cell r="H39" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="I39">
-            <v>50</v>
-          </cell>
-          <cell r="J39">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40" t="str">
-            <v>HKD_YCRH_OIS3M</v>
-          </cell>
-          <cell r="H40" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="I40">
-            <v>50</v>
-          </cell>
-          <cell r="J40">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41" t="str">
-            <v>HKD_YCRH_OIS4M</v>
-          </cell>
-          <cell r="H41" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="I41">
-            <v>50</v>
-          </cell>
-          <cell r="J41">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42" t="str">
-            <v>HKD_YCRH_OIS5M</v>
-          </cell>
-          <cell r="H42" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="I42">
-            <v>50</v>
-          </cell>
-          <cell r="J42">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43" t="str">
-            <v>HKD_YCRH_OIS6M</v>
-          </cell>
-          <cell r="H43" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="I43">
-            <v>50</v>
-          </cell>
-          <cell r="J43">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44" t="str">
-            <v>HKD_YCRH_OIS7M</v>
-          </cell>
-          <cell r="H44" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I44">
-            <v>50</v>
-          </cell>
-          <cell r="J44">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45" t="str">
-            <v>HKD_YCRH_OIS8M</v>
-          </cell>
-          <cell r="H45" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I45">
-            <v>50</v>
-          </cell>
-          <cell r="J45">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46" t="str">
-            <v>HKD_YCRH_OIS9M</v>
-          </cell>
-          <cell r="H46" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="I46">
-            <v>50</v>
-          </cell>
-          <cell r="J46">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47" t="str">
-            <v>HKD_YCRH_OIS10M</v>
-          </cell>
-          <cell r="H47" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I47">
-            <v>50</v>
-          </cell>
-          <cell r="J47">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48" t="str">
-            <v>HKD_YCRH_OIS11M</v>
-          </cell>
-          <cell r="H48" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I48">
-            <v>50</v>
-          </cell>
-          <cell r="J48">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49" t="str">
-            <v>HKD_YCRH_OIS1Y</v>
-          </cell>
-          <cell r="H49" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="I49">
-            <v>50</v>
-          </cell>
-          <cell r="J49">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50" t="str">
-            <v>HKD_YCRH_OIS13M</v>
-          </cell>
-          <cell r="H50" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I50">
-            <v>50</v>
-          </cell>
-          <cell r="J50">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51" t="str">
-            <v>HKD_YCRH_OIS14M</v>
-          </cell>
-          <cell r="H51" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I51">
-            <v>50</v>
-          </cell>
-          <cell r="J51">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52" t="str">
-            <v>HKD_YCRH_OIS15M</v>
-          </cell>
-          <cell r="H52" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I52">
-            <v>50</v>
-          </cell>
-          <cell r="J52">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53" t="str">
-            <v>HKD_YCRH_OIS16M</v>
-          </cell>
-          <cell r="H53" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I53">
-            <v>50</v>
-          </cell>
-          <cell r="J53">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54" t="str">
-            <v>HKD_YCRH_OIS17M</v>
-          </cell>
-          <cell r="H54" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I54">
-            <v>50</v>
-          </cell>
-          <cell r="J54">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55" t="str">
-            <v>HKD_YCRH_OIS18M</v>
-          </cell>
-          <cell r="H55" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I55">
-            <v>50</v>
-          </cell>
-          <cell r="J55">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56" t="str">
-            <v>HKD_YCRH_OIS19M</v>
-          </cell>
-          <cell r="H56" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I56">
-            <v>50</v>
-          </cell>
-          <cell r="J56">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57" t="str">
-            <v>HKD_YCRH_OIS20M</v>
-          </cell>
-          <cell r="H57" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I57">
-            <v>50</v>
-          </cell>
-          <cell r="J57">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58" t="str">
-            <v>HKD_YCRH_OIS21M</v>
-          </cell>
-          <cell r="H58" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I58">
-            <v>50</v>
-          </cell>
-          <cell r="J58">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="E59" t="str">
-            <v>HKD_YCRH_OIS22M</v>
-          </cell>
-          <cell r="H59" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I59">
-            <v>50</v>
-          </cell>
-          <cell r="J59">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="E60" t="str">
-            <v>HKD_YCRH_OIS23M</v>
-          </cell>
-          <cell r="H60" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I60">
-            <v>50</v>
-          </cell>
-          <cell r="J60">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61" t="str">
-            <v>HKD_YCRH_OIS2Y</v>
-          </cell>
-          <cell r="H61" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I61">
-            <v>50</v>
-          </cell>
-          <cell r="J61">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="E62" t="str">
-            <v>HKD_YCRH_OIS27M</v>
-          </cell>
-          <cell r="H62" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I62">
-            <v>50</v>
-          </cell>
-          <cell r="J62">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="E63" t="str">
-            <v>HKD_YCRH_OIS30M</v>
-          </cell>
-          <cell r="H63" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I63">
-            <v>50</v>
-          </cell>
-          <cell r="J63">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="E64" t="str">
-            <v>HKD_YCRH_OIS33M</v>
-          </cell>
-          <cell r="H64" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I64">
-            <v>50</v>
-          </cell>
-          <cell r="J64">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="E65" t="str">
-            <v>HKD_YCRH_OIS3Y</v>
-          </cell>
-          <cell r="H65" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I65">
-            <v>50</v>
-          </cell>
-          <cell r="J65">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="E66" t="str">
-            <v>HKD_YCRH_OIS39M</v>
-          </cell>
-          <cell r="H66" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I66">
-            <v>50</v>
-          </cell>
-          <cell r="J66">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="E67" t="str">
-            <v>HKD_YCRH_OIS42M</v>
-          </cell>
-          <cell r="H67" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I67">
-            <v>50</v>
-          </cell>
-          <cell r="J67">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="E68" t="str">
-            <v>HKD_YCRH_OIS45M</v>
-          </cell>
-          <cell r="H68" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I68">
-            <v>50</v>
-          </cell>
-          <cell r="J68">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="E69" t="str">
-            <v>HKD_YCRH_OIS4Y</v>
-          </cell>
-          <cell r="H69" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I69">
-            <v>50</v>
-          </cell>
-          <cell r="J69">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="E70" t="str">
-            <v>HKD_YCRH_OIS51M</v>
-          </cell>
-          <cell r="H70" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I70">
-            <v>50</v>
-          </cell>
-          <cell r="J70">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="E71" t="str">
-            <v>HKD_YCRH_OIS54M</v>
-          </cell>
-          <cell r="H71" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I71">
-            <v>50</v>
-          </cell>
-          <cell r="J71">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="E72" t="str">
-            <v>HKD_YCRH_OIS57M</v>
-          </cell>
-          <cell r="H72" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I72">
-            <v>50</v>
-          </cell>
-          <cell r="J72">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="E73" t="str">
-            <v>HKD_YCRH_OIS5Y</v>
-          </cell>
-          <cell r="H73" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I73">
-            <v>50</v>
-          </cell>
-          <cell r="J73">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="E74" t="str">
-            <v>HKD_YCRH_OIS6Y</v>
-          </cell>
-          <cell r="H74" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I74">
-            <v>50</v>
-          </cell>
-          <cell r="J74">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="E75" t="str">
-            <v>HKD_YCRH_OIS7Y</v>
-          </cell>
-          <cell r="H75" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I75">
-            <v>50</v>
-          </cell>
-          <cell r="J75">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="E76" t="str">
-            <v>HKD_YCRH_OIS8Y</v>
-          </cell>
-          <cell r="H76" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I76">
-            <v>50</v>
-          </cell>
-          <cell r="J76">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="E77" t="str">
-            <v>HKD_YCRH_OIS9Y</v>
-          </cell>
-          <cell r="H77" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I77">
-            <v>50</v>
-          </cell>
-          <cell r="J77">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="E78" t="str">
-            <v>HKD_YCRH_OIS10Y</v>
-          </cell>
-          <cell r="H78" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I78">
-            <v>50</v>
-          </cell>
-          <cell r="J78">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="E79" t="str">
-            <v>HKD_YCRH_OIS12Y</v>
-          </cell>
-          <cell r="H79" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I79">
-            <v>50</v>
-          </cell>
-          <cell r="J79">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="E80" t="str">
-            <v>HKD_YCRH_OIS15Y</v>
-          </cell>
-          <cell r="H80" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I80">
-            <v>50</v>
-          </cell>
-          <cell r="J80">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="E81" t="str">
-            <v>HKD_YCRH_OIS20Y</v>
-          </cell>
-          <cell r="H81" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I81">
-            <v>50</v>
-          </cell>
-          <cell r="J81">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="E82" t="str">
-            <v>HKD_YCRH_OIS25Y</v>
-          </cell>
-          <cell r="H82" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I82">
-            <v>50</v>
-          </cell>
-          <cell r="J82">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="E83" t="str">
-            <v>HKD_YCRH_OIS27Y</v>
-          </cell>
-          <cell r="H83" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I83">
-            <v>50</v>
-          </cell>
-          <cell r="J83">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="E84" t="str">
-            <v>HKD_YCRH_OIS30Y</v>
-          </cell>
-          <cell r="H84" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I84">
-            <v>50</v>
-          </cell>
-          <cell r="J84">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="E85" t="str">
-            <v>HKD_YCRH_OIS35Y</v>
-          </cell>
-          <cell r="H85" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I85">
-            <v>50</v>
-          </cell>
-          <cell r="J85">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="E86" t="str">
-            <v>HKD_YCRH_OIS40Y</v>
-          </cell>
-          <cell r="H86" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I86">
-            <v>50</v>
-          </cell>
-          <cell r="J86">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="E87" t="str">
-            <v>HKD_YCRH_OIS45Y</v>
-          </cell>
-          <cell r="H87" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I87">
-            <v>50</v>
-          </cell>
-          <cell r="J87">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="E88" t="str">
-            <v>HKD_YCRH_OIS50Y</v>
-          </cell>
-          <cell r="H88" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I88">
-            <v>50</v>
-          </cell>
-          <cell r="J88">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="E89" t="str">
-            <v>HKD_YCRH_OISBASIS1Y</v>
-          </cell>
-          <cell r="H89" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I89">
-            <v>40</v>
-          </cell>
-          <cell r="J89">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="E90" t="str">
-            <v>HKD_YCRH_OISBASIS15M</v>
-          </cell>
-          <cell r="H90" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I90">
-            <v>40</v>
-          </cell>
-          <cell r="J90">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="E91" t="str">
-            <v>HKD_YCRH_OISBASIS18M</v>
-          </cell>
-          <cell r="H91" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I91">
-            <v>40</v>
-          </cell>
-          <cell r="J91">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="E92" t="str">
-            <v>HKD_YCRH_OISBASIS21M</v>
-          </cell>
-          <cell r="H92" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I92">
-            <v>40</v>
-          </cell>
-          <cell r="J92">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="E93" t="str">
-            <v>HKD_YCRH_OISBASIS2Y</v>
-          </cell>
-          <cell r="H93" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I93">
-            <v>40</v>
-          </cell>
-          <cell r="J93">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="E94" t="str">
-            <v>HKD_YCRH_OISBASIS3Y</v>
-          </cell>
-          <cell r="H94" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I94">
-            <v>40</v>
-          </cell>
-          <cell r="J94">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="E95" t="str">
-            <v>HKD_YCRH_OISBASIS4Y</v>
-          </cell>
-          <cell r="H95" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I95">
-            <v>40</v>
-          </cell>
-          <cell r="J95">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="E96" t="str">
-            <v>HKD_YCRH_OISBASIS5Y</v>
-          </cell>
-          <cell r="H96" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I96">
-            <v>40</v>
-          </cell>
-          <cell r="J96">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="E97" t="str">
-            <v>HKD_YCRH_OISBASIS6Y</v>
-          </cell>
-          <cell r="H97" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I97">
-            <v>40</v>
-          </cell>
-          <cell r="J97">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="E98" t="str">
-            <v>HKD_YCRH_OISBASIS7Y</v>
-          </cell>
-          <cell r="H98" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I98">
-            <v>40</v>
-          </cell>
-          <cell r="J98">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="E99" t="str">
-            <v>HKD_YCRH_OISBASIS8Y</v>
-          </cell>
-          <cell r="H99" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I99">
-            <v>40</v>
-          </cell>
-          <cell r="J99">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="E100" t="str">
-            <v>HKD_YCRH_OISBASIS9Y</v>
-          </cell>
-          <cell r="H100" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I100">
-            <v>40</v>
-          </cell>
-          <cell r="J100">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="E101" t="str">
-            <v>HKD_YCRH_OISBASIS10Y</v>
-          </cell>
-          <cell r="H101" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I101">
-            <v>40</v>
-          </cell>
-          <cell r="J101">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="E102" t="str">
-            <v>HKD_YCRH_OISBASIS11Y</v>
-          </cell>
-          <cell r="H102" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I102">
-            <v>40</v>
-          </cell>
-          <cell r="J102">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="E103" t="str">
-            <v>HKD_YCRH_OISBASIS12Y</v>
-          </cell>
-          <cell r="H103" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I103">
-            <v>40</v>
-          </cell>
-          <cell r="J103">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="E104" t="str">
-            <v>HKD_YCRH_OISBASIS13Y</v>
-          </cell>
-          <cell r="H104" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I104">
-            <v>40</v>
-          </cell>
-          <cell r="J104">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="E105" t="str">
-            <v>HKD_YCRH_OISBASIS14Y</v>
-          </cell>
-          <cell r="H105" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I105">
-            <v>40</v>
-          </cell>
-          <cell r="J105">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="E106" t="str">
-            <v>HKD_YCRH_OISBASIS15Y</v>
-          </cell>
-          <cell r="H106" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I106">
-            <v>40</v>
-          </cell>
-          <cell r="J106">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="E107" t="str">
-            <v>HKD_YCRH_OISBASIS16Y</v>
-          </cell>
-          <cell r="H107" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I107">
-            <v>40</v>
-          </cell>
-          <cell r="J107">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="E108" t="str">
-            <v>HKD_YCRH_OISBASIS17Y</v>
-          </cell>
-          <cell r="H108" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I108">
-            <v>40</v>
-          </cell>
-          <cell r="J108">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="E109" t="str">
-            <v>HKD_YCRH_OISBASIS18Y</v>
-          </cell>
-          <cell r="H109" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I109">
-            <v>40</v>
-          </cell>
-          <cell r="J109">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="E110" t="str">
-            <v>HKD_YCRH_OISBASIS19Y</v>
-          </cell>
-          <cell r="H110" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I110">
-            <v>40</v>
-          </cell>
-          <cell r="J110">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="E111" t="str">
-            <v>HKD_YCRH_OISBASIS20Y</v>
-          </cell>
-          <cell r="H111" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I111">
-            <v>40</v>
-          </cell>
-          <cell r="J111">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="E112" t="str">
-            <v>HKD_YCRH_OISBASIS21Y</v>
-          </cell>
-          <cell r="H112" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I112">
-            <v>40</v>
-          </cell>
-          <cell r="J112">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="E113" t="str">
-            <v>HKD_YCRH_OISBASIS22Y</v>
-          </cell>
-          <cell r="H113" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I113">
-            <v>40</v>
-          </cell>
-          <cell r="J113">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="E114" t="str">
-            <v>HKD_YCRH_OISBASIS23Y</v>
-          </cell>
-          <cell r="H114" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I114">
-            <v>40</v>
-          </cell>
-          <cell r="J114">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="E115" t="str">
-            <v>HKD_YCRH_OISBASIS24Y</v>
-          </cell>
-          <cell r="H115" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I115">
-            <v>40</v>
-          </cell>
-          <cell r="J115">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="E116" t="str">
-            <v>HKD_YCRH_OISBASIS25Y</v>
-          </cell>
-          <cell r="H116" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I116">
-            <v>40</v>
-          </cell>
-          <cell r="J116">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="E117" t="str">
-            <v>HKD_YCRH_OISBASIS26Y</v>
-          </cell>
-          <cell r="H117" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I117">
-            <v>40</v>
-          </cell>
-          <cell r="J117">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="E118" t="str">
-            <v>HKD_YCRH_OISBASIS27Y</v>
-          </cell>
-          <cell r="H118" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I118">
-            <v>40</v>
-          </cell>
-          <cell r="J118">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="E119" t="str">
-            <v>HKD_YCRH_OISBASIS28Y</v>
-          </cell>
-          <cell r="H119" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I119">
-            <v>40</v>
-          </cell>
-          <cell r="J119">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="E120" t="str">
-            <v>HKD_YCRH_OISBASIS29Y</v>
-          </cell>
-          <cell r="H120" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I120">
-            <v>40</v>
-          </cell>
-          <cell r="J120">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="E121" t="str">
-            <v>HKD_YCRH_OISBASIS30Y</v>
-          </cell>
-          <cell r="H121" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I121">
-            <v>40</v>
-          </cell>
-          <cell r="J121">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="E122" t="str">
-            <v>HKD_YCRH_OISBASIS35Y</v>
-          </cell>
-          <cell r="H122" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I122">
-            <v>40</v>
-          </cell>
-          <cell r="J122">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="E123" t="str">
-            <v>HKD_YCRH_OISBASIS40Y</v>
-          </cell>
-          <cell r="H123" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I123">
-            <v>40</v>
-          </cell>
-          <cell r="J123">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="E124" t="str">
-            <v>HKD_YCRH_OISBASIS50Y</v>
-          </cell>
-          <cell r="H124" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I124">
-            <v>40</v>
-          </cell>
-          <cell r="J124">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="E125" t="str">
-            <v>HKD_YCRH_OISBASIS60Y</v>
-          </cell>
-          <cell r="H125" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I125">
-            <v>40</v>
-          </cell>
-          <cell r="J125">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>AllDepos</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>HKD_YCRH_RateHelpersSelected#0005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8071,7 +6245,7 @@
       </c>
       <c r="D22" s="20" t="str">
         <f>_xll.qlSimpleQuote(C22,J22,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_Quote#0006</v>
+        <v>HKDOND_Quote#0004</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -8093,7 +6267,7 @@
       </c>
       <c r="D23" s="20" t="str">
         <f>_xll.qlSimpleQuote(C23,J23,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_Quote#0006</v>
+        <v>HKDTND_Quote#0004</v>
       </c>
       <c r="E23" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -8112,7 +6286,7 @@
       </c>
       <c r="D24" s="20" t="str">
         <f>_xll.qlSimpleQuote(C24,J24,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_Quote#0006</v>
+        <v>HKDSND_Quote#0004</v>
       </c>
       <c r="E24" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -8131,7 +6305,7 @@
       </c>
       <c r="D25" s="20" t="str">
         <f>_xll.qlSimpleQuote(C25,J25,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_Quote#0006</v>
+        <v>HKDSWD_Quote#0004</v>
       </c>
       <c r="E25" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -8150,7 +6324,7 @@
       </c>
       <c r="D26" s="20" t="str">
         <f>_xll.qlSimpleQuote(C26,J26,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_Quote#0006</v>
+        <v>HKD2WD_Quote#0004</v>
       </c>
       <c r="E26" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -8172,7 +6346,7 @@
       </c>
       <c r="D27" s="20" t="str">
         <f>_xll.qlSimpleQuote(C27,J27,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_Quote#0006</v>
+        <v>HKD3WD_Quote#0004</v>
       </c>
       <c r="E27" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -8191,7 +6365,7 @@
       </c>
       <c r="D28" s="20" t="str">
         <f>_xll.qlSimpleQuote(C28,J28,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_Quote#0006</v>
+        <v>HKD1MD_Quote#0004</v>
       </c>
       <c r="E28" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -8213,7 +6387,7 @@
       </c>
       <c r="D29" s="20" t="str">
         <f>_xll.qlSimpleQuote(C29,J29,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2MD_Quote#0006</v>
+        <v>HKD2MD_Quote#0004</v>
       </c>
       <c r="E29" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -8235,7 +6409,7 @@
       </c>
       <c r="D30" s="20" t="str">
         <f>_xll.qlSimpleQuote(C30,J30,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3MD_Quote#0006</v>
+        <v>HKD3MD_Quote#0004</v>
       </c>
       <c r="E30" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -8257,7 +6431,7 @@
       </c>
       <c r="D31" s="20" t="str">
         <f>_xll.qlSimpleQuote(C31,J31,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4MD_Quote#0006</v>
+        <v>HKD4MD_Quote#0004</v>
       </c>
       <c r="E31" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -8279,7 +6453,7 @@
       </c>
       <c r="D32" s="20" t="str">
         <f>_xll.qlSimpleQuote(C32,J32,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5MD_Quote#0006</v>
+        <v>HKD5MD_Quote#0004</v>
       </c>
       <c r="E32" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -8301,7 +6475,7 @@
       </c>
       <c r="D33" s="20" t="str">
         <f>_xll.qlSimpleQuote(C33,J33,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6MD_Quote#0006</v>
+        <v>HKD6MD_Quote#0004</v>
       </c>
       <c r="E33" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -8323,7 +6497,7 @@
       </c>
       <c r="D34" s="20" t="str">
         <f>_xll.qlSimpleQuote(C34,J34,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7MD_Quote#0006</v>
+        <v>HKD7MD_Quote#0004</v>
       </c>
       <c r="E34" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -8345,7 +6519,7 @@
       </c>
       <c r="D35" s="20" t="str">
         <f>_xll.qlSimpleQuote(C35,J35,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8MD_Quote#0006</v>
+        <v>HKD8MD_Quote#0004</v>
       </c>
       <c r="E35" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -8367,7 +6541,7 @@
       </c>
       <c r="D36" s="20" t="str">
         <f>_xll.qlSimpleQuote(C36,J36,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9MD_Quote#0006</v>
+        <v>HKD9MD_Quote#0004</v>
       </c>
       <c r="E36" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -8389,7 +6563,7 @@
       </c>
       <c r="D37" s="20" t="str">
         <f>_xll.qlSimpleQuote(C37,J37,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10MD_Quote#0006</v>
+        <v>HKD10MD_Quote#0004</v>
       </c>
       <c r="E37" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -8411,7 +6585,7 @@
       </c>
       <c r="D38" s="20" t="str">
         <f>_xll.qlSimpleQuote(C38,J38,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11MD_Quote#0006</v>
+        <v>HKD11MD_Quote#0004</v>
       </c>
       <c r="E38" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -8433,7 +6607,7 @@
       </c>
       <c r="D39" s="20" t="str">
         <f>_xll.qlSimpleQuote(C39,J39,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1YD_Quote#0006</v>
+        <v>HKD1YD_Quote#0004</v>
       </c>
       <c r="E39" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -8576,7 +6750,7 @@
       </c>
       <c r="E48" s="20" t="str">
         <f>_xll.qlSimpleQuote(D48,J48,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1x4F_Quote#0006</v>
+        <v>HKD1x4F_Quote#0004</v>
       </c>
       <c r="F48" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E48)</f>
@@ -8600,7 +6774,7 @@
       </c>
       <c r="E49" s="20" t="str">
         <f>_xll.qlSimpleQuote(D49,J49,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2x5F_Quote#0006</v>
+        <v>HKD2x5F_Quote#0004</v>
       </c>
       <c r="F49" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E49)</f>
@@ -8624,7 +6798,7 @@
       </c>
       <c r="E50" s="20" t="str">
         <f>_xll.qlSimpleQuote(D50,J50,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3x6F_Quote#0006</v>
+        <v>HKD3x6F_Quote#0004</v>
       </c>
       <c r="F50" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E50)</f>
@@ -8648,7 +6822,7 @@
       </c>
       <c r="E51" s="20" t="str">
         <f>_xll.qlSimpleQuote(D51,J51,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4x7F_Quote#0006</v>
+        <v>HKD4x7F_Quote#0004</v>
       </c>
       <c r="F51" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E51)</f>
@@ -8672,7 +6846,7 @@
       </c>
       <c r="E52" s="20" t="str">
         <f>_xll.qlSimpleQuote(D52,J52,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5x8F_Quote#0006</v>
+        <v>HKD5x8F_Quote#0004</v>
       </c>
       <c r="F52" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E52)</f>
@@ -8696,7 +6870,7 @@
       </c>
       <c r="E53" s="20" t="str">
         <f>_xll.qlSimpleQuote(D53,J53,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6x9F_Quote#0006</v>
+        <v>HKD6x9F_Quote#0004</v>
       </c>
       <c r="F53" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E53)</f>
@@ -8720,7 +6894,7 @@
       </c>
       <c r="E54" s="20" t="str">
         <f>_xll.qlSimpleQuote(D54,J54,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7x10F_Quote#0006</v>
+        <v>HKD7x10F_Quote#0004</v>
       </c>
       <c r="F54" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E54)</f>
@@ -8744,7 +6918,7 @@
       </c>
       <c r="E55" s="20" t="str">
         <f>_xll.qlSimpleQuote(D55,J55,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8x11F_Quote#0006</v>
+        <v>HKD8x11F_Quote#0004</v>
       </c>
       <c r="F55" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E55)</f>
@@ -8768,7 +6942,7 @@
       </c>
       <c r="E56" s="20" t="str">
         <f>_xll.qlSimpleQuote(D56,J56,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9x12F_Quote#0006</v>
+        <v>HKD9x12F_Quote#0004</v>
       </c>
       <c r="F56" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E56)</f>
@@ -8841,7 +7015,7 @@
       </c>
       <c r="E59" s="20" t="str">
         <f>_xll.qlSimpleQuote(D59,J59,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1x7F_Quote#0006</v>
+        <v>HKD1x7F_Quote#0004</v>
       </c>
       <c r="F59" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E59)</f>
@@ -8866,7 +7040,7 @@
       </c>
       <c r="E60" s="20" t="str">
         <f>_xll.qlSimpleQuote(D60,J60,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2x8F_Quote#0006</v>
+        <v>HKD2x8F_Quote#0004</v>
       </c>
       <c r="F60" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E60)</f>
@@ -8891,7 +7065,7 @@
       </c>
       <c r="E61" s="20" t="str">
         <f>_xll.qlSimpleQuote(D61,J61,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3x9F_Quote#0006</v>
+        <v>HKD3x9F_Quote#0004</v>
       </c>
       <c r="F61" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E61)</f>
@@ -8916,7 +7090,7 @@
       </c>
       <c r="E62" s="20" t="str">
         <f>_xll.qlSimpleQuote(D62,J62,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4x10F_Quote#0006</v>
+        <v>HKD4x10F_Quote#0004</v>
       </c>
       <c r="F62" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E62)</f>
@@ -8941,7 +7115,7 @@
       </c>
       <c r="E63" s="20" t="str">
         <f>_xll.qlSimpleQuote(D63,J63,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5x11F_Quote#0006</v>
+        <v>HKD5x11F_Quote#0004</v>
       </c>
       <c r="F63" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E63)</f>
@@ -8966,7 +7140,7 @@
       </c>
       <c r="E64" s="20" t="str">
         <f>_xll.qlSimpleQuote(D64,J64,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6x12F_Quote#0006</v>
+        <v>HKD6x12F_Quote#0004</v>
       </c>
       <c r="F64" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E64)</f>
@@ -9116,7 +7290,7 @@
       </c>
       <c r="E70" s="20" t="str">
         <f>_xll.qlSimpleQuote(D70,J70,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD12x18F_Quote#0006</v>
+        <v>HKD12x18F_Quote#0004</v>
       </c>
       <c r="F70" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E70)</f>
@@ -9266,7 +7440,7 @@
       </c>
       <c r="E76" s="20" t="str">
         <f>_xll.qlSimpleQuote(D76,J76,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD18x24F_Quote#0006</v>
+        <v>HKD18x24F_Quote#0004</v>
       </c>
       <c r="F76" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(E76)</f>
@@ -12563,7 +10737,7 @@
       </c>
       <c r="F209" s="27" t="str">
         <f>_xll.qlSimpleQuote(E209,J209,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX3_Quote#0006</v>
+        <v>HKDFUT3MX3_Quote#0004</v>
       </c>
       <c r="G209" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(F209)</f>
@@ -12590,7 +10764,7 @@
       </c>
       <c r="F210" s="27" t="str">
         <f>_xll.qlSimpleQuote(E210,J210,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ3_Quote#0006</v>
+        <v>HKDFUT3MZ3_Quote#0004</v>
       </c>
       <c r="G210" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(F210)</f>
@@ -12617,7 +10791,7 @@
       </c>
       <c r="F211" s="27" t="str">
         <f>_xll.qlSimpleQuote(E211,J211,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF4_Quote#0006</v>
+        <v>HKDFUT3MF4_Quote#0004</v>
       </c>
       <c r="G211" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(F211)</f>
@@ -12671,7 +10845,7 @@
       </c>
       <c r="F213" s="27" t="str">
         <f>_xll.qlSimpleQuote(E213,J213,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH4_Quote#0006</v>
+        <v>HKDFUT3MH4_Quote#0004</v>
       </c>
       <c r="G213" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(F213)</f>
@@ -12752,7 +10926,7 @@
       </c>
       <c r="F216" s="27" t="str">
         <f>_xll.qlSimpleQuote(E216,J216,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM4_Quote#0006</v>
+        <v>HKDFUT3MM4_Quote#0004</v>
       </c>
       <c r="G216" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(F216)</f>
@@ -12833,7 +11007,7 @@
       </c>
       <c r="F219" s="27" t="str">
         <f>_xll.qlSimpleQuote(E219,J219,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU4_Quote#0006</v>
+        <v>HKDFUT3MU4_Quote#0004</v>
       </c>
       <c r="G219" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(F219)</f>
@@ -18989,7 +17163,7 @@
       </c>
       <c r="C459" s="2" t="str">
         <f>_xll.qlSimpleQuote(B459,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDHW_Volatility_Quote#0006</v>
+        <v>HKDHW_Volatility_Quote#0004</v>
       </c>
       <c r="D459" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(C459)</f>
@@ -19003,7 +17177,7 @@
       </c>
       <c r="C460" s="2" t="str">
         <f>_xll.qlSimpleQuote(B460,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDHW_MeanReversion_Quote#0006</v>
+        <v>HKDHW_MeanReversion_Quote#0004</v>
       </c>
       <c r="D460" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(C460)</f>
@@ -19289,7 +17463,7 @@
       </c>
       <c r="F25" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B25&amp;$C25&amp;$D25&amp;QuoteSuffix,N25,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS1M_Quote#0006</v>
+        <v>HKDOIS1M_Quote#0004</v>
       </c>
       <c r="G25" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -19314,7 +17488,7 @@
       </c>
       <c r="F26" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B26&amp;$C26&amp;$D26&amp;QuoteSuffix,N26,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS2M_Quote#0006</v>
+        <v>HKDOIS2M_Quote#0004</v>
       </c>
       <c r="G26" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -19339,7 +17513,7 @@
       </c>
       <c r="F27" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B27&amp;$C27&amp;$D27&amp;QuoteSuffix,N27,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS3M_Quote#0006</v>
+        <v>HKDOIS3M_Quote#0004</v>
       </c>
       <c r="G27" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -19364,7 +17538,7 @@
       </c>
       <c r="F28" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B28&amp;$C28&amp;$D28&amp;QuoteSuffix,N28,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS4M_Quote#0006</v>
+        <v>HKDOIS4M_Quote#0004</v>
       </c>
       <c r="G28" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -19389,7 +17563,7 @@
       </c>
       <c r="F29" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B29&amp;$C29&amp;$D29&amp;QuoteSuffix,N29,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS5M_Quote#0006</v>
+        <v>HKDOIS5M_Quote#0004</v>
       </c>
       <c r="G29" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -19414,7 +17588,7 @@
       </c>
       <c r="F30" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B30&amp;$C30&amp;$D30&amp;QuoteSuffix,N30,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS6M_Quote#0006</v>
+        <v>HKDOIS6M_Quote#0004</v>
       </c>
       <c r="G30" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -19489,7 +17663,7 @@
       </c>
       <c r="F33" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B33&amp;$C33&amp;$D33&amp;QuoteSuffix,N33,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS9M_Quote#0006</v>
+        <v>HKDOIS9M_Quote#0004</v>
       </c>
       <c r="G33" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -19564,7 +17738,7 @@
       </c>
       <c r="F36" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B36&amp;$C36&amp;$D36&amp;QuoteSuffix,N36,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS1Y_Quote#0006</v>
+        <v>HKDOIS1Y_Quote#0004</v>
       </c>
       <c r="G36" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -20579,7 +18753,7 @@
       </c>
       <c r="F77" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B77&amp;$C77&amp;$D77&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISDEC12_Quote#0006</v>
+        <v>HKDFEDOISDEC12_Quote#0004</v>
       </c>
       <c r="G77" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F77)</f>
@@ -20607,7 +18781,7 @@
       </c>
       <c r="F78" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B78&amp;$C78&amp;$D78&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJAN13_Quote#0006</v>
+        <v>HKDFEDOISJAN13_Quote#0004</v>
       </c>
       <c r="G78" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F78)</f>
@@ -20635,7 +18809,7 @@
       </c>
       <c r="F79" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B79&amp;$C79&amp;$D79&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISFEB13_Quote#0006</v>
+        <v>HKDFEDOISFEB13_Quote#0004</v>
       </c>
       <c r="G79" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F79)</f>
@@ -20663,7 +18837,7 @@
       </c>
       <c r="F80" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B80&amp;$C80&amp;$D80&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISMAR13_Quote#0006</v>
+        <v>HKDFEDOISMAR13_Quote#0004</v>
       </c>
       <c r="G80" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F80)</f>
@@ -20691,7 +18865,7 @@
       </c>
       <c r="F81" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B81&amp;$C81&amp;$D81&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISAPR13_Quote#0006</v>
+        <v>HKDFEDOISAPR13_Quote#0004</v>
       </c>
       <c r="G81" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F81)</f>
@@ -20719,7 +18893,7 @@
       </c>
       <c r="F82" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B82&amp;$C82&amp;$D82&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISMAY13_Quote#0006</v>
+        <v>HKDFEDOISMAY13_Quote#0004</v>
       </c>
       <c r="G82" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F82)</f>
@@ -20747,7 +18921,7 @@
       </c>
       <c r="F83" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B83&amp;$C83&amp;$D83&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJUN13_Quote#0006</v>
+        <v>HKDFEDOISJUN13_Quote#0004</v>
       </c>
       <c r="G83" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F83)</f>
@@ -20775,7 +18949,7 @@
       </c>
       <c r="F84" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B84&amp;$C84&amp;$D84&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJUL13_Quote#0006</v>
+        <v>HKDFEDOISJUL13_Quote#0004</v>
       </c>
       <c r="G84" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F84)</f>
@@ -20803,7 +18977,7 @@
       </c>
       <c r="F85" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B85&amp;$C85&amp;$D85&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISAUG13_Quote#0006</v>
+        <v>HKDFEDOISAUG13_Quote#0004</v>
       </c>
       <c r="G85" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F85)</f>
@@ -20831,7 +19005,7 @@
       </c>
       <c r="F86" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B86&amp;$C86&amp;$D86&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISSEP13_Quote#0006</v>
+        <v>HKDFEDOISSEP13_Quote#0004</v>
       </c>
       <c r="G86" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F86)</f>
@@ -20859,7 +19033,7 @@
       </c>
       <c r="F87" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B87&amp;$C87&amp;$D87&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISOCT13_Quote#0006</v>
+        <v>HKDFEDOISOCT13_Quote#0004</v>
       </c>
       <c r="G87" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F87)</f>
@@ -20887,7 +19061,7 @@
       </c>
       <c r="F88" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B88&amp;$C88&amp;$D88&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISNOV13_Quote#0006</v>
+        <v>HKDFEDOISNOV13_Quote#0004</v>
       </c>
       <c r="G88" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F88)</f>
@@ -20915,7 +19089,7 @@
       </c>
       <c r="F89" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B89&amp;$C89&amp;$D89&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISDEC13_Quote#0006</v>
+        <v>HKDFEDOISDEC13_Quote#0004</v>
       </c>
       <c r="G89" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F89)</f>
@@ -21659,7 +19833,7 @@
       </c>
       <c r="F119" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C119&amp;$D119&amp;$B119&amp;QuoteSuffix,N119,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H3M_Quote#0006</v>
+        <v>HKDAM1H3M_Quote#0004</v>
       </c>
       <c r="G119" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F119)</f>
@@ -21740,7 +19914,7 @@
       </c>
       <c r="F122" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C122&amp;$D122&amp;$B122&amp;QuoteSuffix,N122,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H6M_Quote#0006</v>
+        <v>HKDAM1H6M_Quote#0004</v>
       </c>
       <c r="G122" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F122)</f>
@@ -21821,7 +19995,7 @@
       </c>
       <c r="F125" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C125&amp;$D125&amp;$B125&amp;QuoteSuffix,N125,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H9M_Quote#0006</v>
+        <v>HKDAM1H9M_Quote#0004</v>
       </c>
       <c r="G125" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F125)</f>
@@ -21902,7 +20076,7 @@
       </c>
       <c r="F128" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C128&amp;$D128&amp;$B128&amp;QuoteSuffix,N128,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H1Y_Quote#0006</v>
+        <v>HKDAM1H1Y_Quote#0004</v>
       </c>
       <c r="G128" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F128)</f>
@@ -21967,7 +20141,7 @@
       </c>
       <c r="F133" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C133&amp;$D133&amp;$B133&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1S12_Quote#0006</v>
+        <v>HKD1S12_Quote#0004</v>
       </c>
       <c r="G133" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F133)</f>
@@ -21992,7 +20166,7 @@
       </c>
       <c r="F134" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C134&amp;$D134&amp;$B134&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2S12_Quote#0006</v>
+        <v>HKD2S12_Quote#0004</v>
       </c>
       <c r="G134" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F134)</f>
@@ -22017,7 +20191,7 @@
       </c>
       <c r="F135" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C135&amp;$D135&amp;$B135&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3S12_Quote#0006</v>
+        <v>HKD3S12_Quote#0004</v>
       </c>
       <c r="G135" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F135)</f>
@@ -22042,7 +20216,7 @@
       </c>
       <c r="F136" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C136&amp;$D136&amp;$B136&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4S12_Quote#0006</v>
+        <v>HKD4S12_Quote#0004</v>
       </c>
       <c r="G136" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F136)</f>
@@ -22067,7 +20241,7 @@
       </c>
       <c r="F137" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C137&amp;$D137&amp;$B137&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1S24_Quote#0006</v>
+        <v>HKD1S24_Quote#0004</v>
       </c>
       <c r="G137" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F137)</f>
@@ -22092,7 +20266,7 @@
       </c>
       <c r="F138" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C138&amp;$D138&amp;$B138&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2S24_Quote#0006</v>
+        <v>HKD2S24_Quote#0004</v>
       </c>
       <c r="G138" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F138)</f>
@@ -22117,7 +20291,7 @@
       </c>
       <c r="F139" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C139&amp;$D139&amp;$B139&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1S36_Quote#0006</v>
+        <v>HKD1S36_Quote#0004</v>
       </c>
       <c r="G139" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F139)</f>
@@ -22197,7 +20371,7 @@
       </c>
       <c r="F144" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C144&amp;$D144&amp;$B144&amp;QuoteSuffix,N144,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H6M_Quote#0006</v>
+        <v>HKDQM3H6M_Quote#0004</v>
       </c>
       <c r="G144" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F144)</f>
@@ -22233,7 +20407,7 @@
       </c>
       <c r="F145" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C145&amp;$D145&amp;$B145&amp;QuoteSuffix,N145,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H1Y_Quote#0006</v>
+        <v>HKDQM3H1Y_Quote#0004</v>
       </c>
       <c r="G145" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F145)</f>
@@ -22305,7 +20479,7 @@
       </c>
       <c r="F147" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C147&amp;$D147&amp;$B147&amp;QuoteSuffix,N147,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H18M_Quote#0006</v>
+        <v>HKDQM3H18M_Quote#0004</v>
       </c>
       <c r="G147" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F147)</f>
@@ -22363,7 +20537,7 @@
       </c>
       <c r="F149" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C149&amp;$D149&amp;$B149&amp;QuoteSuffix,N149,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H2Y_Quote#0006</v>
+        <v>HKDQM3H2Y_Quote#0004</v>
       </c>
       <c r="G149" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F149)</f>
@@ -22399,7 +20573,7 @@
       </c>
       <c r="F150" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C150&amp;$D150&amp;$B150&amp;QuoteSuffix,N150,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H3Y_Quote#0006</v>
+        <v>HKDQM3H3Y_Quote#0004</v>
       </c>
       <c r="G150" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F150)</f>
@@ -22435,7 +20609,7 @@
       </c>
       <c r="F151" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C151&amp;$D151&amp;$B151&amp;QuoteSuffix,N151,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H4Y_Quote#0006</v>
+        <v>HKDQM3H4Y_Quote#0004</v>
       </c>
       <c r="G151" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F151)</f>
@@ -22471,7 +20645,7 @@
       </c>
       <c r="F152" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C152&amp;$D152&amp;$B152&amp;QuoteSuffix,N152,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H5Y_Quote#0006</v>
+        <v>HKDQM3H5Y_Quote#0004</v>
       </c>
       <c r="G152" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F152)</f>
@@ -22525,7 +20699,7 @@
       </c>
       <c r="F154" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C154&amp;$D154&amp;$B154&amp;QuoteSuffix,N154,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H7Y_Quote#0006</v>
+        <v>HKDQM3H7Y_Quote#0004</v>
       </c>
       <c r="G154" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F154)</f>
@@ -22606,7 +20780,7 @@
       </c>
       <c r="F157" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C157&amp;$D157&amp;$B157&amp;QuoteSuffix,N157,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H10Y_Quote#0006</v>
+        <v>HKDQM3H10Y_Quote#0004</v>
       </c>
       <c r="G157" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F157)</f>
@@ -22660,7 +20834,7 @@
       </c>
       <c r="F159" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C159&amp;$D159&amp;$B159&amp;QuoteSuffix,N159,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H12Y_Quote#0006</v>
+        <v>HKDQM3H12Y_Quote#0004</v>
       </c>
       <c r="G159" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F159)</f>
@@ -22741,7 +20915,7 @@
       </c>
       <c r="F162" s="7" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C162&amp;$D162&amp;$B162&amp;QuoteSuffix,N162,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H15Y_Quote#0006</v>
+        <v>HKDQM3H15Y_Quote#0004</v>
       </c>
       <c r="G162" s="39" t="str">
         <f>_xll.ohRangeRetrieveError(F162)</f>
@@ -24509,7 +22683,7 @@
       </c>
       <c r="D21" s="20" t="str">
         <f>_xll.qlSimpleQuote(C21,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY_SYNTHON_Quote#0006</v>
+        <v>HKDTOY_SYNTHON_Quote#0004</v>
       </c>
       <c r="E21" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -24528,7 +22702,7 @@
       </c>
       <c r="D22" s="20" t="str">
         <f>_xll.qlSimpleQuote(C22,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY2_SYNTHON_Quote#0006</v>
+        <v>HKDTOY2_SYNTHON_Quote#0004</v>
       </c>
       <c r="E22" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -30184,7 +28358,7 @@
       </c>
       <c r="G155" s="27" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F155,IborIndex,$D155,$E155,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX3ConvAdj_Quote#0005</v>
+        <v>HKDFUT3MX3ConvAdj_Quote#0003</v>
       </c>
       <c r="H155" s="19" t="str">
         <f>_xll.ohRangeRetrieveError(G155)</f>
@@ -30212,7 +28386,7 @@
       </c>
       <c r="G156" s="27" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F156,IborIndex,$D156,$E156,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ3ConvAdj_Quote#0005</v>
+        <v>HKDFUT3MZ3ConvAdj_Quote#0003</v>
       </c>
       <c r="H156" s="19" t="str">
         <f>_xll.ohRangeRetrieveError(G156)</f>
@@ -30240,7 +28414,7 @@
       </c>
       <c r="G157" s="27" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F157,IborIndex,$D157,$E157,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF4ConvAdj_Quote#0005</v>
+        <v>HKDFUT3MF4ConvAdj_Quote#0003</v>
       </c>
       <c r="H157" s="19" t="str">
         <f>_xll.ohRangeRetrieveError(G157)</f>
@@ -30296,7 +28470,7 @@
       </c>
       <c r="G159" s="27" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F159,IborIndex,$D159,$E159,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH4ConvAdj_Quote#0005</v>
+        <v>HKDFUT3MH4ConvAdj_Quote#0003</v>
       </c>
       <c r="H159" s="19" t="str">
         <f>_xll.ohRangeRetrieveError(G159)</f>
@@ -30380,7 +28554,7 @@
       </c>
       <c r="G162" s="27" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F162,IborIndex,$D162,$E162,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM4ConvAdj_Quote#0005</v>
+        <v>HKDFUT3MM4ConvAdj_Quote#0003</v>
       </c>
       <c r="H162" s="19" t="str">
         <f>_xll.ohRangeRetrieveError(G162)</f>
@@ -30464,7 +28638,7 @@
       </c>
       <c r="G165" s="27" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F165,IborIndex,$D165,$E165,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU4ConvAdj_Quote#0005</v>
+        <v>HKDFUT3MU4ConvAdj_Quote#0003</v>
       </c>
       <c r="H165" s="19" t="str">
         <f>_xll.ohRangeRetrieveError(G165)</f>
